--- a/ResourceFiles/Fabrikam Q1 Employee Survey Results.xlsx
+++ b/ResourceFiles/Fabrikam Q1 Employee Survey Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY25\ILT\MSU121821_ILT_May\MS-4004_GitHub\10_DTP\zh-TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC1D24-E809-4A91-99AD-15D38833430F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -414,19 +414,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -474,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999900102615356"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,30 +482,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -525,96 +497,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -942,22 +842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2733B-EFE0-436B-9CC1-A90EDC20CC9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2733B-EFE0-436B-9CC1-A90EDC20CC9F}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A8">
-      <selection pane="topLeft" activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -971,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -985,8 +885,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -997,7 +896,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1010,7 +909,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="14.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1023,14 +922,14 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +943,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1056,19 +955,19 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D9" s="4">
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1080,7 +979,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1092,13 +991,13 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1011,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1124,7 +1023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1136,7 +1035,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -1148,7 +1047,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -1160,13 +1059,13 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1180,7 +1079,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -1192,19 +1091,19 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D21" s="4">
         <v>0.39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -1213,10 +1112,10 @@
         <v>0.39</v>
       </c>
       <c r="D22" s="4">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -1225,16 +1124,16 @@
         <v>0.4</v>
       </c>
       <c r="D23" s="4">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="28.8">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1147,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>29</v>
@@ -1260,7 +1159,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -1272,7 +1171,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1284,7 +1183,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>32</v>
@@ -1293,7 +1192,7 @@
         <v>0.37</v>
       </c>
       <c r="D29" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
